--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\isazureanf-3dec.ap.cat.com\isvdiproddata01\cs19\Documents\GitHub\daily-challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A3BCFF-A68A-437D-9531-9F6521D222C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2570552-7510-49ED-A742-86D8E26B12FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="System Design Questions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Dynamic Programming</t>
   </si>
@@ -64,12 +65,48 @@
   <si>
     <t>Dynamic Programming Problems</t>
   </si>
+  <si>
+    <t>System should scale to millions of users</t>
+  </si>
+  <si>
+    <t>Design a TinyURL (URL shortner)</t>
+  </si>
+  <si>
+    <t>Design a simple pastbin (text sharing service)?</t>
+  </si>
+  <si>
+    <t>Collisions should be avoided</t>
+  </si>
+  <si>
+    <t>Design a Cache system (like Redis)</t>
+  </si>
+  <si>
+    <t>Cache consistency, scability and reducing DB load</t>
+  </si>
+  <si>
+    <t>Day 001</t>
+  </si>
+  <si>
+    <t>Day 002</t>
+  </si>
+  <si>
+    <t>Day 003</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Considerations</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +120,20 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -92,7 +143,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -100,12 +151,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C5:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,4 +517,104 @@
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K737373 Caterpillar: Confidential Green</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBA2C92-A136-40AE-9AFF-8F4357BEF088}">
+  <dimension ref="B1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\isazureanf-3dec.ap.cat.com\isvdiproddata01\cs19\Documents\GitHub\daily-challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2570552-7510-49ED-A742-86D8E26B12FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B0C835-B534-44F3-A04B-BD046D217D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Dynamic Programming</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>Considerations</t>
+  </si>
+  <si>
+    <t>14th Feb</t>
+  </si>
+  <si>
+    <t>Rate limiter like API request throttling</t>
+  </si>
+  <si>
+    <t>Prevent abuse and ensure fairness in high-traffic APIs</t>
   </si>
 </sst>
 </file>
@@ -521,19 +530,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBA2C92-A136-40AE-9AFF-8F4357BEF088}">
-  <dimension ref="B1:D11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
@@ -544,7 +553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
@@ -555,7 +564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
@@ -566,7 +575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
@@ -577,37 +586,46 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\isazureanf-3dec.ap.cat.com\isvdiproddata01\cs19\Documents\GitHub\daily-challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B0C835-B534-44F3-A04B-BD046D217D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B2465B-30E8-4DAA-AE48-B18AFD4A5BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Dynamic Programming</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>Prevent abuse and ensure fairness in high-traffic APIs</t>
+  </si>
+  <si>
+    <t>Day 004</t>
+  </si>
+  <si>
+    <t>Day 005</t>
+  </si>
+  <si>
+    <t>Day 006</t>
+  </si>
+  <si>
+    <t>Day 007</t>
+  </si>
+  <si>
+    <t>Day 008</t>
+  </si>
+  <si>
+    <t>Day 009</t>
+  </si>
+  <si>
+    <t>Day 010</t>
+  </si>
+  <si>
+    <t>Notification system like push notifications</t>
+  </si>
+  <si>
+    <t>Scalability, low latency, millions of notifications are sent per second</t>
+  </si>
+  <si>
+    <t>URL Crawler like Googlebot</t>
+  </si>
+  <si>
+    <t>Crawls billions of pages while avoiding infite loops</t>
+  </si>
+  <si>
+    <t>15th Feb</t>
+  </si>
+  <si>
+    <t>16th Feb</t>
+  </si>
+  <si>
+    <t>17th Feb</t>
+  </si>
+  <si>
+    <t>18th Feb</t>
+  </si>
+  <si>
+    <t>19th Feb</t>
+  </si>
+  <si>
+    <t>20th Feb</t>
   </si>
 </sst>
 </file>
@@ -144,12 +195,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -181,10 +238,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,56 +590,58 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -590,45 +649,83 @@
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\isazureanf-3dec.ap.cat.com\isvdiproddata01\cs19\Documents\GitHub\daily-challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B2465B-30E8-4DAA-AE48-B18AFD4A5BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68BE392-03C8-4060-A326-291D1C8F86E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Dynamic Programming</t>
   </si>
@@ -161,12 +161,60 @@
   <si>
     <t>20th Feb</t>
   </si>
+  <si>
+    <t>Contains Duplicate</t>
+  </si>
+  <si>
+    <t>DSA Question</t>
+  </si>
+  <si>
+    <t>Reverse a linked list</t>
+  </si>
+  <si>
+    <t>Design a Messaging Queue (like Kafka/RabbitMQ)</t>
+  </si>
+  <si>
+    <t>Event drive architecture, ensure HA</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>DSA Status</t>
+  </si>
+  <si>
+    <t>Intersection of Two Arrays</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t>Min Stack</t>
+  </si>
+  <si>
+    <t>Design a file storage system like Gdrive</t>
+  </si>
+  <si>
+    <t>Distributed storage, Meta data management</t>
+  </si>
+  <si>
+    <t>Design a logging system</t>
+  </si>
+  <si>
+    <t>Timestamp indexing, efficient log retrival</t>
+  </si>
+  <si>
+    <t>E-commenrce checkout system (Amazon cart)</t>
+  </si>
+  <si>
+    <t>Transaction, Order processing, Payment gateway</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +238,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -233,17 +289,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -587,21 +660,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBA2C92-A136-40AE-9AFF-8F4357BEF088}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A11"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
@@ -611,8 +686,14 @@
       <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
@@ -622,8 +703,10 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="1"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
@@ -633,8 +716,10 @@
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="1"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -644,8 +729,10 @@
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="1"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -658,8 +745,10 @@
       <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="1"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -672,8 +761,10 @@
       <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="1"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -686,50 +777,95 @@
       <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" display="https://leetcode.com/problems/contains-duplicate/" xr:uid="{9C1435B7-0C88-442E-B716-60A39CEFFC30}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{A3D91132-36FE-47E2-8416-3963EECEF098}"/>
+    <hyperlink ref="E9" r:id="rId3" display="https://leetcode.com/problems/intersection-of-two-arrays/" xr:uid="{C0C1964D-5D64-4A22-BCAF-A35719568AA3}"/>
+    <hyperlink ref="E10" r:id="rId4" display="https://leetcode.com/problems/linked-list-cycle/" xr:uid="{854E2ED1-ABE6-4AFF-AB3E-8D266A7F55A8}"/>
+    <hyperlink ref="E11" r:id="rId5" display="https://leetcode.com/problems/min-stack/" xr:uid="{A809FAEB-36D7-4F80-BBBD-1F2AECAD8602}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\isazureanf-3dec.ap.cat.com\isvdiproddata01\cs19\Documents\GitHub\daily-challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68BE392-03C8-4060-A326-291D1C8F86E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93A106D-05E1-4063-81E7-199C8D491400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>Dynamic Programming</t>
   </si>
@@ -293,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -303,9 +303,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -664,7 +661,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -673,7 +670,7 @@
     <col min="3" max="3" width="41.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -780,7 +777,9 @@
       <c r="E7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -833,7 +832,7 @@
       <c r="D10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F10" s="4"/>
@@ -851,7 +850,7 @@
       <c r="D11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F11" s="4"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\isazureanf-3dec.ap.cat.com\isvdiproddata01\cs19\Documents\GitHub\daily-challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93A106D-05E1-4063-81E7-199C8D491400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8E460F-8CF4-4B65-8D3C-31B2BC351B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>Dynamic Programming</t>
   </si>
@@ -208,6 +208,15 @@
   </si>
   <si>
     <t>Transaction, Order processing, Payment gateway</t>
+  </si>
+  <si>
+    <t>Floyd's Cycle-Finding Algorithm (Tortoise and Hare)</t>
+  </si>
+  <si>
+    <t>Boyer-Moore Majority Voting Algorithm</t>
+  </si>
+  <si>
+    <t>Majority Element</t>
   </si>
 </sst>
 </file>
@@ -265,7 +274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -288,12 +297,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -311,6 +329,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -657,23 +676,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBA2C92-A136-40AE-9AFF-8F4357BEF088}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
@@ -690,7 +711,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
@@ -703,7 +724,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
@@ -716,7 +737,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -729,7 +750,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -745,7 +766,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -758,10 +779,14 @@
       <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -774,14 +799,17 @@
       <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>41</v>
+      <c r="E7" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -795,13 +823,13 @@
         <v>45</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -817,9 +845,11 @@
       <c r="E9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -836,8 +866,11 @@
         <v>49</v>
       </c>
       <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -858,13 +891,14 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" display="https://leetcode.com/problems/contains-duplicate/" xr:uid="{9C1435B7-0C88-442E-B716-60A39CEFFC30}"/>
-    <hyperlink ref="E8" r:id="rId2" xr:uid="{A3D91132-36FE-47E2-8416-3963EECEF098}"/>
+    <hyperlink ref="E8" r:id="rId1" display="https://leetcode.com/problems/contains-duplicate/" xr:uid="{9C1435B7-0C88-442E-B716-60A39CEFFC30}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{A3D91132-36FE-47E2-8416-3963EECEF098}"/>
     <hyperlink ref="E9" r:id="rId3" display="https://leetcode.com/problems/intersection-of-two-arrays/" xr:uid="{C0C1964D-5D64-4A22-BCAF-A35719568AA3}"/>
     <hyperlink ref="E10" r:id="rId4" display="https://leetcode.com/problems/linked-list-cycle/" xr:uid="{854E2ED1-ABE6-4AFF-AB3E-8D266A7F55A8}"/>
     <hyperlink ref="E11" r:id="rId5" display="https://leetcode.com/problems/min-stack/" xr:uid="{A809FAEB-36D7-4F80-BBBD-1F2AECAD8602}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{6A99E8DD-4A3B-4E44-8C00-EA89C9B47A71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\isazureanf-3dec.ap.cat.com\isvdiproddata01\cs19\Documents\GitHub\daily-challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8E460F-8CF4-4B65-8D3C-31B2BC351B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A9010E-B42F-4E83-9957-6E02B8837BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>Dynamic Programming</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>Majority Element</t>
+  </si>
+  <si>
+    <t>Two Pointer</t>
   </si>
 </sst>
 </file>
@@ -676,11 +679,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBA2C92-A136-40AE-9AFF-8F4357BEF088}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,9 +695,10 @@
     <col min="5" max="5" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
@@ -711,7 +715,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
@@ -724,7 +728,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
@@ -737,7 +741,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -750,7 +754,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -766,7 +770,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -786,7 +790,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -809,7 +813,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -829,7 +833,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -849,7 +853,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -865,12 +869,17 @@
       <c r="E10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="G10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
